--- a/Project 1 – Unleashing Sales Analytics Potential.xlsx
+++ b/Project 1 – Unleashing Sales Analytics Potential.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data science course\PROJECTS\EXCEL-PROJECTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D97AC77-C095-4F44-BD4A-B6FC743B5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7E4B7-24A8-44D3-B281-44CD959F127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="791" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="10" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Sales by Customer" sheetId="9" r:id="rId3"/>
     <sheet name="Sales by Branch" sheetId="8" r:id="rId4"/>
     <sheet name="Distribution of Customer" sheetId="7" r:id="rId5"/>
-    <sheet name="Total Sales Revenue" sheetId="2" r:id="rId6"/>
+    <sheet name="Revenue by city" sheetId="2" r:id="rId6"/>
     <sheet name="Monthly Sales Trend" sheetId="5" r:id="rId7"/>
     <sheet name="Top Selling Product" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -3190,9 +3185,6 @@
     <t>Sum of Total</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -3239,6 +3231,9 @@
   </si>
   <si>
     <t>Dashboard Report</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -3315,7 +3310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3343,7 +3338,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3352,343 +3346,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -3837,27 +3495,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3912,7 +3550,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Distribution of Customer'!$B$5</c:f>
+              <c:f>'Distribution of Customer'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3941,7 +3579,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Distribution of Customer'!$A$6:$A$10</c:f>
+              <c:f>'Distribution of Customer'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3961,7 +3599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Distribution of Customer'!$B$6:$B$10</c:f>
+              <c:f>'Distribution of Customer'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -4216,7 +3854,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Project 1 – Unleashing Sales Analytics Potential.xlsx]Total Sales Revenue!PivotTable1</c:name>
+    <c:name>[Project 1 – Unleashing Sales Analytics Potential.xlsx]Revenue by city!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4327,27 +3965,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4403,7 +4021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Total Sales Revenue'!$B$3</c:f>
+              <c:f>'Revenue by city'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4488,7 +4106,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Total Sales Revenue'!$A$4:$A$7</c:f>
+              <c:f>'Revenue by city'!$A$4:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4505,7 +4123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Sales Revenue'!$B$4:$B$7</c:f>
+              <c:f>'Revenue by city'!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -5037,27 +4655,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5120,27 +4718,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5203,27 +4781,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5286,27 +4844,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6125,8 +5663,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6217,21 +5754,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -6258,21 +5795,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -9505,27 +9042,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9580,7 +9097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Monthly Sales Trend'!$B$3</c:f>
+              <c:f>'Monthly Sales Trend'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9609,7 +9126,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Monthly Sales Trend'!$A$4:$A$8</c:f>
+              <c:f>'Monthly Sales Trend'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9629,7 +9146,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monthly Sales Trend'!$B$4:$B$8</c:f>
+              <c:f>'Monthly Sales Trend'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -10033,27 +9550,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -14144,8 +13641,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>162721</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Branch">
@@ -14168,7 +13665,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14222,8 +13719,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152221</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Customer type">
@@ -14246,7 +13743,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14300,8 +13797,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Gender">
@@ -14324,7 +13821,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14378,8 +13875,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>151201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Product line">
@@ -14402,7 +13899,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14456,8 +13953,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Rating">
@@ -14480,7 +13977,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14534,8 +14031,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="Months (Month)">
@@ -14558,7 +14055,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14612,8 +14109,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="22" name="City">
@@ -14636,7 +14133,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14681,7 +14178,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vinay Sharma" refreshedDate="45679.975194212966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{EFF2D3EF-191A-48FD-93DC-CB39A814675C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45679.975194212966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{EFF2D3EF-191A-48FD-93DC-CB39A814675C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1001" sheet="Main"/>
   </cacheSource>
@@ -31321,7 +30818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5352E288-2610-4230-B9B5-983A74B77A15}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5352E288-2610-4230-B9B5-983A74B77A15}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Customer type">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -31664,7 +31161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEB00B2A-E70A-42C1-A2F8-E276FF082AAC}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEB00B2A-E70A-42C1-A2F8-E276FF082AAC}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Branch">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -31981,8 +31478,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3AC79DA-8578-4172-A8A1-9FA8DC39A8D8}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A5:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3AC79DA-8578-4172-A8A1-9FA8DC39A8D8}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Range">
+  <location ref="A2:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -32259,14 +31756,14 @@
     <dataField name="Count of Range" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="115">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32294,7 +31791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4832C5B5-64CB-4D88-8B84-1A7FAFE7E86B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4832C5B5-64CB-4D88-8B84-1A7FAFE7E86B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="City">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -32925,7 +32422,7 @@
     <dataField name="Total Sales" fld="8" baseField="2" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="113">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32953,8 +32450,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6189C39-C97B-485E-9E12-BB6A8C719EE4}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6189C39-C97B-485E-9E12-BB6A8C719EE4}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Month">
+  <location ref="A2:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -33587,7 +33084,7 @@
     <dataField name="Sum of Total" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="112">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -33615,7 +33112,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B77943EE-B966-4C02-BCA9-CF7A2DC78654}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B77943EE-B966-4C02-BCA9-CF7A2DC78654}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Product">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -34354,42 +33851,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045D653-5CBC-4284-80ED-6BCE01B23331}">
   <dimension ref="F1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:18" ht="44.4" x14ac:dyDescent="0.7">
-      <c r="F1" s="13" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -34409,7 +33907,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -34452,13 +33950,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -85483,12 +84981,12 @@
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -85501,27 +84999,27 @@
         <v>1031</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F4" t="s">
         <v>1032</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -85564,7 +85062,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="9">
         <v>115041.91649999998</v>
@@ -85584,6 +85082,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -85592,7 +85091,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85603,7 +85102,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1032</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1031</v>
@@ -85635,7 +85134,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="9">
         <v>322966.74899999995</v>
@@ -85643,15 +85142,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFDC8C1-DDAE-4D20-890A-D96594606490}">
-  <dimension ref="A5:B10"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85660,12 +85160,36 @@
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B3" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B4" s="9">
+        <v>208</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1042</v>
+      <c r="A5" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B5" s="9">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -85673,43 +85197,20 @@
         <v>1044</v>
       </c>
       <c r="B6" s="9">
-        <v>9</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="9">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B8" s="9">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B9" s="9">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B10" s="9">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -85718,7 +85219,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85729,10 +85230,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1032</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -85761,7 +85262,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="9">
         <v>322966.74900000001</v>
@@ -85769,15 +85270,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC15FA2-37F8-445C-A469-C5546A614DEF}">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85837,12 +85339,20 @@
     <col min="94" max="94" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1031</v>
+      <c r="A3" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B3" s="9">
+        <v>115041.91649999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -85850,7 +85360,7 @@
         <v>1037</v>
       </c>
       <c r="B4" s="9">
-        <v>115041.91649999998</v>
+        <v>97219.374000000054</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -85858,7 +85368,7 @@
         <v>1038</v>
       </c>
       <c r="B5" s="9">
-        <v>97219.374000000054</v>
+        <v>109892.83200000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -85866,27 +85376,20 @@
         <v>1039</v>
       </c>
       <c r="B6" s="9">
-        <v>109892.83200000004</v>
+        <v>812.62649999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="9">
-        <v>812.62649999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B8" s="9">
         <v>322966.74900000007</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -85894,8 +85397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06634BB2-81FC-46A2-A305-36810A66B197}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85909,17 +85412,17 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>971</v>
       </c>
     </row>
@@ -85927,7 +85430,7 @@
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>952</v>
       </c>
     </row>
@@ -85935,7 +85438,7 @@
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>920</v>
       </c>
     </row>
@@ -85943,7 +85446,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>911</v>
       </c>
     </row>
@@ -85951,7 +85454,7 @@
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>902</v>
       </c>
     </row>
@@ -85959,19 +85462,20 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B10" s="11">
+        <v>1032</v>
+      </c>
+      <c r="B10">
         <v>5510</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>